--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H2">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>794.4573544100632</v>
+        <v>1175.428333524492</v>
       </c>
       <c r="R2">
-        <v>794.4573544100632</v>
+        <v>10578.85500172043</v>
       </c>
       <c r="S2">
-        <v>0.1192475617816039</v>
+        <v>0.1395460395504673</v>
       </c>
       <c r="T2">
-        <v>0.1192475617816039</v>
+        <v>0.1395460395504674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H3">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>1251.452709635697</v>
+        <v>1522.340539477394</v>
       </c>
       <c r="R3">
-        <v>1251.452709635697</v>
+        <v>13701.06485529654</v>
       </c>
       <c r="S3">
-        <v>0.1878422843978246</v>
+        <v>0.1807312169294119</v>
       </c>
       <c r="T3">
-        <v>0.1878422843978246</v>
+        <v>0.1807312169294119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H4">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>674.7056246049231</v>
+        <v>954.8890125833634</v>
       </c>
       <c r="R4">
-        <v>674.7056246049231</v>
+        <v>8594.001113250271</v>
       </c>
       <c r="S4">
-        <v>0.1012729005626939</v>
+        <v>0.1133637637581145</v>
       </c>
       <c r="T4">
-        <v>0.1012729005626939</v>
+        <v>0.1133637637581145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H5">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I5">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J5">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>353.8533410968387</v>
+        <v>432.7944266011475</v>
       </c>
       <c r="R5">
-        <v>353.8533410968387</v>
+        <v>3895.149839410328</v>
       </c>
       <c r="S5">
-        <v>0.05311316953621213</v>
+        <v>0.05138105527081642</v>
       </c>
       <c r="T5">
-        <v>0.05311316953621213</v>
+        <v>0.05138105527081643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H6">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>436.6086098818981</v>
+        <v>548.8286510930844</v>
       </c>
       <c r="R6">
-        <v>436.6086098818981</v>
+        <v>4939.457859837759</v>
       </c>
       <c r="S6">
-        <v>0.06553468464010025</v>
+        <v>0.06515655822437207</v>
       </c>
       <c r="T6">
-        <v>0.06553468464010025</v>
+        <v>0.06515655822437207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H7">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>687.7587888813873</v>
+        <v>710.8082057886578</v>
       </c>
       <c r="R7">
-        <v>687.7587888813873</v>
+        <v>6397.273852097919</v>
       </c>
       <c r="S7">
-        <v>0.1032321725171451</v>
+        <v>0.08438665903208294</v>
       </c>
       <c r="T7">
-        <v>0.1032321725171451</v>
+        <v>0.08438665903208292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H8">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J8">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>370.7968504577567</v>
+        <v>445.8548716009956</v>
       </c>
       <c r="R8">
-        <v>370.7968504577567</v>
+        <v>4012.69384440896</v>
       </c>
       <c r="S8">
-        <v>0.05565637990250494</v>
+        <v>0.0529315822766022</v>
       </c>
       <c r="T8">
-        <v>0.05565637990250494</v>
+        <v>0.0529315822766022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H9">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J9">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>194.4665934562074</v>
+        <v>202.0795097221156</v>
       </c>
       <c r="R9">
-        <v>194.4665934562074</v>
+        <v>1818.71558749904</v>
       </c>
       <c r="S9">
-        <v>0.02918931644209776</v>
+        <v>0.02399073975991902</v>
       </c>
       <c r="T9">
-        <v>0.02918931644209776</v>
+        <v>0.02399073975991902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H10">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>425.4518563950955</v>
+        <v>598.6017289070841</v>
       </c>
       <c r="R10">
-        <v>425.4518563950955</v>
+        <v>5387.415560163756</v>
       </c>
       <c r="S10">
-        <v>0.0638600627824078</v>
+        <v>0.0710655836299062</v>
       </c>
       <c r="T10">
-        <v>0.0638600627824078</v>
+        <v>0.0710655836299062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H11">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I11">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J11">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>670.1843409839739</v>
+        <v>775.2711525883281</v>
       </c>
       <c r="R11">
-        <v>670.1843409839739</v>
+        <v>6977.440373294951</v>
       </c>
       <c r="S11">
-        <v>0.1005942586633794</v>
+        <v>0.09203965553308911</v>
       </c>
       <c r="T11">
-        <v>0.1005942586633794</v>
+        <v>0.0920396555330891</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H12">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I12">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J12">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>361.3217989800522</v>
+        <v>486.2892934806641</v>
       </c>
       <c r="R12">
-        <v>361.3217989800522</v>
+        <v>4376.603641325976</v>
       </c>
       <c r="S12">
-        <v>0.05423418048525561</v>
+        <v>0.0577319289025013</v>
       </c>
       <c r="T12">
-        <v>0.05423418048525561</v>
+        <v>0.0577319289025013</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H13">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I13">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J13">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N13">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q13">
-        <v>189.4973468689813</v>
+        <v>220.406029560286</v>
       </c>
       <c r="R13">
-        <v>189.4973468689813</v>
+        <v>1983.654266042574</v>
       </c>
       <c r="S13">
-        <v>0.02844343557621002</v>
+        <v>0.0261664515317218</v>
       </c>
       <c r="T13">
-        <v>0.02844343557621002</v>
+        <v>0.0261664515317218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H14">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I14">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J14">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N14">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q14">
-        <v>65.03974361039238</v>
+        <v>100.5945536104787</v>
       </c>
       <c r="R14">
-        <v>65.03974361039238</v>
+        <v>905.3509824943079</v>
       </c>
       <c r="S14">
-        <v>0.009762425637307063</v>
+        <v>0.01194251589511898</v>
       </c>
       <c r="T14">
-        <v>0.009762425637307063</v>
+        <v>0.01194251589511898</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H15">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I15">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J15">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N15">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q15">
-        <v>102.4525267761881</v>
+        <v>130.2837124511707</v>
       </c>
       <c r="R15">
-        <v>102.4525267761881</v>
+        <v>1172.553412060536</v>
       </c>
       <c r="S15">
-        <v>0.01537806145113604</v>
+        <v>0.01546719231786661</v>
       </c>
       <c r="T15">
-        <v>0.01537806145113604</v>
+        <v>0.01546719231786661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H16">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I16">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J16">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N16">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q16">
-        <v>55.23604331082015</v>
+        <v>81.72053644508534</v>
       </c>
       <c r="R16">
-        <v>55.23604331082015</v>
+        <v>735.484828005768</v>
       </c>
       <c r="S16">
-        <v>0.008290896233403844</v>
+        <v>0.009701805618941777</v>
       </c>
       <c r="T16">
-        <v>0.008290896233403844</v>
+        <v>0.009701805618941777</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H17">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I17">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J17">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N17">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q17">
-        <v>28.96886843940027</v>
+        <v>37.03906134243134</v>
       </c>
       <c r="R17">
-        <v>28.96886843940027</v>
+        <v>333.351552081882</v>
       </c>
       <c r="S17">
-        <v>0.004348209390717653</v>
+        <v>0.004397251769067903</v>
       </c>
       <c r="T17">
-        <v>0.004348209390717653</v>
+        <v>0.004397251769067903</v>
       </c>
     </row>
   </sheetData>
